--- a/NformTester/NformTester/Keywordscripts/600.60.30.90_DailyForGlobalStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.30.90_DailyForGlobalStatusPolling.xlsx
@@ -4565,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.60.30.90_DailyForGlobalStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.30.90_DailyForGlobalStatusPolling.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7944" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7944" uniqueCount="900">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3948,25 +3948,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1_NAME$</t>
-  </si>
-  <si>
     <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_ChangeData$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4028,6 +4013,16 @@
   <si>
     <t>SendCommandToSimulator</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
   </si>
 </sst>
 </file>
@@ -4565,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4578,15 +4573,15 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>840</v>
@@ -4627,10 +4622,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4651,10 +4646,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4685,10 +4680,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4715,7 +4710,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B5" s="8">
         <v>41732</v>
@@ -4739,10 +4734,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4788,7 +4783,7 @@
         <v>875</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>835</v>
@@ -4803,7 +4798,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4826,7 +4821,7 @@
         <v>876</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>835</v>
@@ -4841,7 +4836,7 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -4969,7 +4964,7 @@
         <v>855</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
@@ -5166,7 +5161,7 @@
         <v>56</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -5332,13 +5327,13 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="9" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="I27" s="9">
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -5460,7 +5455,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>2</v>
@@ -5582,13 +5577,13 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="9" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="I38" s="9">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -5670,13 +5665,13 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="9" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="I42" s="9">
         <v>1</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5838,7 +5833,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>2</v>
@@ -5955,18 +5950,18 @@
         <v>860</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="9" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="I55" s="9">
         <v>1</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -6118,7 +6113,7 @@
         <v>56</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6395,7 +6390,7 @@
         <v>855</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J74" s="4" t="b">
         <v>1</v>
